--- a/settings_list.xlsx
+++ b/settings_list.xlsx
@@ -64,7 +64,7 @@
     <t>Ecological_Footprint</t>
   </si>
   <si>
-    <t>23_03_07_09_19</t>
+    <t>23_03_12_21_49</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -470,7 +470,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -494,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/settings_list.xlsx
+++ b/settings_list.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23_04_22_09_17</t>
+          <t>25_01_09_13_31</t>
         </is>
       </c>
     </row>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
